--- a/codigo_final_organizado/analisis/Resultados_analisis/Proporciones/Analisis_Sensibilidad/sensibilidad_metricas_General.xlsx
+++ b/codigo_final_organizado/analisis/Resultados_analisis/Proporciones/Analisis_Sensibilidad/sensibilidad_metricas_General.xlsx
@@ -94,13 +94,13 @@
     <t>EnCQR-LSTM</t>
   </si>
   <si>
+    <t>Media</t>
+  </si>
+  <si>
+    <t>Baja</t>
+  </si>
+  <si>
     <t>Alta</t>
-  </si>
-  <si>
-    <t>Baja</t>
-  </si>
-  <si>
-    <t>Media</t>
   </si>
 </sst>
 </file>
@@ -522,49 +522,49 @@
         <v>17</v>
       </c>
       <c r="B2">
-        <v>0.9854776828218084</v>
+        <v>0.6823512161602983</v>
       </c>
       <c r="C2">
-        <v>39.9241774856317</v>
+        <v>15.33113038772945</v>
       </c>
       <c r="D2">
-        <v>0.3239209582234278</v>
+        <v>0.247939764829981</v>
       </c>
       <c r="E2">
-        <v>0.1069078675458434</v>
+        <v>0.05791248697124759</v>
       </c>
       <c r="F2">
-        <v>0.6954027048926736</v>
+        <v>0.6823512161602983</v>
       </c>
       <c r="G2">
-        <v>28.17251115684938</v>
+        <v>15.33113038772945</v>
       </c>
       <c r="H2">
-        <v>0.467633143728257</v>
+        <v>-0.5014326295937543</v>
       </c>
       <c r="I2">
-        <v>0.4270659333332685</v>
+        <v>0.3894232741092488</v>
       </c>
       <c r="J2">
-        <v>0.2</v>
+        <v>-0.3</v>
       </c>
       <c r="K2">
-        <v>0.747060078104662</v>
+        <v>0.6238376647810728</v>
       </c>
       <c r="L2">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="M2">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="N2">
-        <v>2.468373163546003</v>
+        <v>3.840829591153802</v>
       </c>
       <c r="O2">
-        <v>3.453850846367811</v>
+        <v>4.5231808073141</v>
       </c>
       <c r="P2">
-        <v>3.029907579856333</v>
+        <v>4.281283325875441</v>
       </c>
       <c r="Q2" t="s">
         <v>26</v>
@@ -575,49 +575,49 @@
         <v>18</v>
       </c>
       <c r="B3">
-        <v>0.003712761651014973</v>
+        <v>0.005498553392880856</v>
       </c>
       <c r="C3">
-        <v>0.6388421865719098</v>
+        <v>0.9637178365559351</v>
       </c>
       <c r="D3">
-        <v>0.001388591837783916</v>
+        <v>0.002378218748399829</v>
       </c>
       <c r="E3">
-        <v>0.002397906590311606</v>
+        <v>0.004172179191845095</v>
       </c>
       <c r="F3">
-        <v>0.003712761651014973</v>
+        <v>0.005498553392880856</v>
       </c>
       <c r="G3">
-        <v>0.6388421865719098</v>
+        <v>0.9637178365559351</v>
       </c>
       <c r="H3">
-        <v>-0.0751236005411656</v>
+        <v>-0.0673724969120969</v>
       </c>
       <c r="I3">
-        <v>0.9044397053600881</v>
+        <v>0.9142836112962821</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>0.09999999999999999</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>0.8728885715695383</v>
       </c>
       <c r="L3">
         <v>20</v>
       </c>
       <c r="M3">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="N3">
-        <v>0.5774576320792454</v>
+        <v>0.5671364262344255</v>
       </c>
       <c r="O3">
-        <v>0.5811703937302604</v>
+        <v>0.5726349796273064</v>
       </c>
       <c r="P3">
-        <v>0.5790850416752347</v>
+        <v>0.5700183618786734</v>
       </c>
       <c r="Q3" t="s">
         <v>27</v>
@@ -628,49 +628,49 @@
         <v>19</v>
       </c>
       <c r="B4">
-        <v>0.03170249550541593</v>
+        <v>0.01744920806992656</v>
       </c>
       <c r="C4">
-        <v>3.9601750831035</v>
+        <v>2.109476144407865</v>
       </c>
       <c r="D4">
-        <v>0.01101456003925864</v>
+        <v>0.005937347807722505</v>
       </c>
       <c r="E4">
-        <v>0.01390267235874742</v>
+        <v>0.007158788359901711</v>
       </c>
       <c r="F4">
-        <v>0.03170249550541593</v>
+        <v>0.00947569387749525</v>
       </c>
       <c r="G4">
-        <v>3.9601750831035</v>
+        <v>1.145539104478799</v>
       </c>
       <c r="H4">
-        <v>0.05233914316924959</v>
+        <v>0.7195845771380244</v>
       </c>
       <c r="I4">
-        <v>0.9333901712616787</v>
+        <v>0.1705564511145398</v>
       </c>
       <c r="J4">
-        <v>0.09999999999999999</v>
+        <v>0.7999999999999999</v>
       </c>
       <c r="K4">
-        <v>0.8728885715695383</v>
+        <v>0.1040880386618279</v>
       </c>
       <c r="L4">
+        <v>20</v>
+      </c>
+      <c r="M4">
         <v>40</v>
       </c>
-      <c r="M4">
-        <v>50</v>
-      </c>
       <c r="N4">
-        <v>0.7764851498794437</v>
+        <v>0.820242277353684</v>
       </c>
       <c r="O4">
-        <v>0.8081876453848597</v>
+        <v>0.8376914854236106</v>
       </c>
       <c r="P4">
-        <v>0.7922620741564405</v>
+        <v>0.8293788710082811</v>
       </c>
       <c r="Q4" t="s">
         <v>27</v>
@@ -681,49 +681,49 @@
         <v>20</v>
       </c>
       <c r="B5">
-        <v>0.220297631010292</v>
+        <v>0.01728766680351179</v>
       </c>
       <c r="C5">
-        <v>15.62588464664938</v>
+        <v>2.082924557102623</v>
       </c>
       <c r="D5">
-        <v>0.0837395369436232</v>
+        <v>0.006825868938324568</v>
       </c>
       <c r="E5">
-        <v>0.05734770418804011</v>
+        <v>0.008168964615015215</v>
       </c>
       <c r="F5">
-        <v>0.220297631010292</v>
+        <v>0.01337578788507698</v>
       </c>
       <c r="G5">
-        <v>15.62588464664938</v>
+        <v>1.611597294943411</v>
       </c>
       <c r="H5">
-        <v>0.5168900080552519</v>
+        <v>0.8428973061843681</v>
       </c>
       <c r="I5">
-        <v>0.3724847603133675</v>
+        <v>0.07296267281754164</v>
       </c>
       <c r="J5">
-        <v>0.09999999999999999</v>
+        <v>0.7999999999999999</v>
       </c>
       <c r="K5">
-        <v>0.8728885715695383</v>
+        <v>0.1040880386618279</v>
       </c>
       <c r="L5">
+        <v>20</v>
+      </c>
+      <c r="M5">
         <v>40</v>
       </c>
-      <c r="M5">
-        <v>50</v>
-      </c>
       <c r="N5">
-        <v>1.39167447515791</v>
+        <v>0.8283628986472749</v>
       </c>
       <c r="O5">
-        <v>1.611972106168202</v>
+        <v>0.8456505654507867</v>
       </c>
       <c r="P5">
-        <v>1.460207311334481</v>
+        <v>0.8355855680630653</v>
       </c>
       <c r="Q5" t="s">
         <v>27</v>
@@ -734,49 +734,49 @@
         <v>21</v>
       </c>
       <c r="B6">
-        <v>0.9773943998413981</v>
+        <v>0.6374800645166205</v>
       </c>
       <c r="C6">
-        <v>43.04787015486153</v>
+        <v>15.5114476592994</v>
       </c>
       <c r="D6">
-        <v>0.3276992036426361</v>
+        <v>0.2353321693676426</v>
       </c>
       <c r="E6">
-        <v>0.1156377431763272</v>
+        <v>0.05942072244019273</v>
       </c>
       <c r="F6">
-        <v>0.7208017870110792</v>
+        <v>0.6374800645166205</v>
       </c>
       <c r="G6">
-        <v>31.74663343649214</v>
+        <v>15.5114476592994</v>
       </c>
       <c r="H6">
-        <v>0.4596417858879954</v>
+        <v>-0.4303420270569588</v>
       </c>
       <c r="I6">
-        <v>0.4360811215418509</v>
+        <v>0.4694877289939547</v>
       </c>
       <c r="J6">
-        <v>0.2</v>
+        <v>-0.3</v>
       </c>
       <c r="K6">
-        <v>0.747060078104662</v>
+        <v>0.6238376647810728</v>
       </c>
       <c r="L6">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="M6">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="N6">
-        <v>2.270482596061766</v>
+        <v>3.563375856854013</v>
       </c>
       <c r="O6">
-        <v>3.247876995903164</v>
+        <v>4.200855921370634</v>
       </c>
       <c r="P6">
-        <v>2.83384295335955</v>
+        <v>3.96043938382785</v>
       </c>
       <c r="Q6" t="s">
         <v>26</v>
@@ -787,49 +787,49 @@
         <v>22</v>
       </c>
       <c r="B7">
-        <v>0.1915120382924977</v>
+        <v>0.5093423122170309</v>
       </c>
       <c r="C7">
-        <v>17.3042426600626</v>
+        <v>28.01568567879445</v>
       </c>
       <c r="D7">
-        <v>0.06612289596989715</v>
+        <v>0.1800399780778915</v>
       </c>
       <c r="E7">
-        <v>0.05486356843280456</v>
+        <v>0.1206434488306541</v>
       </c>
       <c r="F7">
-        <v>0.1915120382924977</v>
+        <v>0.4748118475724812</v>
       </c>
       <c r="G7">
-        <v>17.3042426600626</v>
+        <v>26.1163841273219</v>
       </c>
       <c r="H7">
-        <v>0.09051524907469238</v>
+        <v>-0.6819861752178811</v>
       </c>
       <c r="I7">
-        <v>0.8849099702342467</v>
+        <v>0.2046990693977388</v>
       </c>
       <c r="J7">
-        <v>0.09999999999999999</v>
+        <v>-0.7</v>
       </c>
       <c r="K7">
-        <v>0.8728885715695383</v>
+        <v>0.1881204043741873</v>
       </c>
       <c r="L7">
+        <v>50</v>
+      </c>
+      <c r="M7">
         <v>10</v>
       </c>
-      <c r="M7">
-        <v>20</v>
-      </c>
       <c r="N7">
-        <v>1.10673458558518</v>
+        <v>1.308718891269988</v>
       </c>
       <c r="O7">
-        <v>1.298246623877678</v>
+        <v>1.818061203487019</v>
       </c>
       <c r="P7">
-        <v>1.205224119734077</v>
+        <v>1.492331161144205</v>
       </c>
       <c r="Q7" t="s">
         <v>28</v>
@@ -840,49 +840,49 @@
         <v>23</v>
       </c>
       <c r="B8">
-        <v>0.2594640290197194</v>
+        <v>0.4998454596020083</v>
       </c>
       <c r="C8">
-        <v>24.24481115854361</v>
+        <v>26.77429239485837</v>
       </c>
       <c r="D8">
-        <v>0.08875700294974546</v>
+        <v>0.1918457387641821</v>
       </c>
       <c r="E8">
-        <v>0.074365975903726</v>
+        <v>0.1225885788080737</v>
       </c>
       <c r="F8">
-        <v>0.2594640290197194</v>
+        <v>0.4864834439482133</v>
       </c>
       <c r="G8">
-        <v>24.24481115854361</v>
+        <v>26.05855414571184</v>
       </c>
       <c r="H8">
-        <v>0.2451533126516851</v>
+        <v>-0.6379317567024309</v>
       </c>
       <c r="I8">
-        <v>0.691016516344885</v>
+        <v>0.2468302491491191</v>
       </c>
       <c r="J8">
-        <v>0.3</v>
+        <v>-0.7</v>
       </c>
       <c r="K8">
-        <v>0.6238376647810728</v>
+        <v>0.1881204043741873</v>
       </c>
       <c r="L8">
+        <v>50</v>
+      </c>
+      <c r="M8">
         <v>10</v>
       </c>
-      <c r="M8">
-        <v>20</v>
-      </c>
       <c r="N8">
-        <v>1.070183749104134</v>
+        <v>1.367040328565438</v>
       </c>
       <c r="O8">
-        <v>1.329647778123854</v>
+        <v>1.866885788167447</v>
       </c>
       <c r="P8">
-        <v>1.193516280410951</v>
+        <v>1.56495605569046</v>
       </c>
       <c r="Q8" t="s">
         <v>28</v>
@@ -893,52 +893,52 @@
         <v>24</v>
       </c>
       <c r="B9">
-        <v>0.4642776127195394</v>
+        <v>0.6484558282621347</v>
       </c>
       <c r="C9">
-        <v>54.66335641339734</v>
+        <v>39.94512788662421</v>
       </c>
       <c r="D9">
-        <v>0.198878479629175</v>
+        <v>0.212636471358065</v>
       </c>
       <c r="E9">
-        <v>0.1819899702869092</v>
+        <v>0.1335731781463725</v>
       </c>
       <c r="F9">
-        <v>0.4483218764855421</v>
+        <v>0.6484558282621347</v>
       </c>
       <c r="G9">
-        <v>52.78475173227086</v>
+        <v>39.94512788662421</v>
       </c>
       <c r="H9">
-        <v>0.09496119109280715</v>
+        <v>-0.1007767624843136</v>
       </c>
       <c r="I9">
-        <v>0.8792736206205671</v>
+        <v>0.8719045630115309</v>
       </c>
       <c r="J9">
-        <v>0.2</v>
+        <v>-0.3</v>
       </c>
       <c r="K9">
-        <v>0.747060078104662</v>
+        <v>0.6238376647810728</v>
       </c>
       <c r="L9">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="M9">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="N9">
-        <v>0.8493397463712098</v>
+        <v>1.311769756366188</v>
       </c>
       <c r="O9">
-        <v>1.313617359090749</v>
+        <v>1.960225584628323</v>
       </c>
       <c r="P9">
-        <v>1.092799121378178</v>
+        <v>1.591909950102805</v>
       </c>
       <c r="Q9" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -946,34 +946,34 @@
         <v>25</v>
       </c>
       <c r="B10">
-        <v>0.344039743678473</v>
+        <v>0.3784109554749739</v>
       </c>
       <c r="C10">
-        <v>17.55979208508774</v>
+        <v>17.409546179078</v>
       </c>
       <c r="D10">
-        <v>0.1358586209600775</v>
+        <v>0.1465702339311407</v>
       </c>
       <c r="E10">
-        <v>0.06516782310199531</v>
+        <v>0.06954474426977712</v>
       </c>
       <c r="F10">
-        <v>0.2711221481796078</v>
+        <v>0.2773374427564117</v>
       </c>
       <c r="G10">
-        <v>13.83807725466037</v>
+        <v>12.7594588555047</v>
       </c>
       <c r="H10">
-        <v>0.5352906367916043</v>
+        <v>0.4711242293538925</v>
       </c>
       <c r="I10">
-        <v>0.3525611070480495</v>
+        <v>0.4231410254366035</v>
       </c>
       <c r="J10">
-        <v>0.4999999999999999</v>
+        <v>0.6</v>
       </c>
       <c r="K10">
-        <v>0.3910022189557705</v>
+        <v>0.2847569798652937</v>
       </c>
       <c r="L10">
         <v>30</v>
@@ -982,16 +982,16 @@
         <v>50</v>
       </c>
       <c r="N10">
-        <v>1.953213036957726</v>
+        <v>1.918298195058024</v>
       </c>
       <c r="O10">
-        <v>2.297252780636199</v>
+        <v>2.296709150532998</v>
       </c>
       <c r="P10">
-        <v>2.084750026826011</v>
+        <v>2.10756737220238</v>
       </c>
       <c r="Q10" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
